--- a/Documentação/Dionário de dados.xlsx
+++ b/Documentação/Dionário de dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Israel\Documents\Docs\SENAI\WsTower\Projeto-WSTower-\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Israel\Documents\Docs\SENAI\WsTower\Projeto-WSTower\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AFE18D6-0FDF-4869-B1E8-11F8C171BC83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D06628-CD79-4050-A00B-855579F99CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1470" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{B75CEE1C-D128-4A29-AE90-915C301893D9}"/>
+    <workbookView xWindow="-24120" yWindow="-1470" windowWidth="24240" windowHeight="13140" xr2:uid="{C04143B7-74A0-463D-A0D3-D873A7AB9D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Selecao" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
-  <si>
-    <t>Selecao</t>
-  </si>
-  <si>
-    <t>Jogo</t>
-  </si>
-  <si>
-    <t>Jogador</t>
-  </si>
-  <si>
-    <t>Usuario</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+  <si>
+    <t>TABELA: Selecao</t>
+  </si>
+  <si>
+    <t>Nome do campo</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Restrições</t>
+  </si>
+  <si>
+    <t>Observações</t>
   </si>
   <si>
     <t>id</t>
@@ -54,7 +63,7 @@
     <t>Nome</t>
   </si>
   <si>
-    <t xml:space="preserve">Bandeira </t>
+    <t>Bandeira</t>
   </si>
   <si>
     <t>Uniforme</t>
@@ -63,19 +72,34 @@
     <t>Escalacao</t>
   </si>
   <si>
-    <t>Tabela</t>
-  </si>
-  <si>
-    <t>PK</t>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
   </si>
   <si>
     <t>IMAGE</t>
   </si>
   <si>
-    <t>VARCHAR(255)</t>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
+    <t>NOT NULL IDENTITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT NULL </t>
+  </si>
+  <si>
+    <t>NENHUMA</t>
+  </si>
+  <si>
+    <t>255 caracteres</t>
+  </si>
+  <si>
+    <t>10 caracteres</t>
+  </si>
+  <si>
+    <t>TABELA: Jogador</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Nacimento</t>
@@ -84,16 +108,16 @@
     <t>Posicao</t>
   </si>
   <si>
-    <t>QtdEFaltas</t>
-  </si>
-  <si>
-    <t>QtdCartoesAmarelo</t>
-  </si>
-  <si>
-    <t>QtdeCartoesVermelhos</t>
-  </si>
-  <si>
-    <t>QtdeGols</t>
+    <t>QTDEFaltas</t>
+  </si>
+  <si>
+    <t>QTDECartoesAmarelo</t>
+  </si>
+  <si>
+    <t>QTDECartoesVermelho</t>
+  </si>
+  <si>
+    <t>QTDEGols</t>
   </si>
   <si>
     <t>Informacoes</t>
@@ -102,22 +126,28 @@
     <t>NumeroCamisa</t>
   </si>
   <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
     <t>Foto</t>
   </si>
   <si>
     <t>SelecaoID</t>
   </si>
   <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>Default (0)</t>
+  </si>
+  <si>
+    <t>Chave entrangeira references (Selecao(id))</t>
+  </si>
+  <si>
+    <t>Tabela: Jogo</t>
   </si>
   <si>
     <t>SelecaoCasa</t>
@@ -126,25 +156,31 @@
     <t>SelecaoVisitante</t>
   </si>
   <si>
+    <t>PenaltisVisitante</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Estadio</t>
+  </si>
+  <si>
     <t>PlacarCasa</t>
   </si>
   <si>
-    <t xml:space="preserve">PlacarVisitante </t>
+    <t>Default(0)</t>
   </si>
   <si>
     <t>PenaltisCasa</t>
   </si>
   <si>
-    <t>PenaltisVisitante</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Estadio</t>
-  </si>
-  <si>
-    <t>FK</t>
+    <t>PlacarVisitante</t>
+  </si>
+  <si>
+    <t>dd/mm/aaaa</t>
+  </si>
+  <si>
+    <t>TABELA: Usuario</t>
   </si>
   <si>
     <t>Email</t>
@@ -169,14 +205,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,49 +222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,20 +245,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,320 +563,712 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C54E88-8DF9-4150-887D-EF044D918344}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8754FAC4-5665-4701-8A93-ECCC8AD05F4D}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC92BD74-229B-4169-82B4-E9500C0EB39C}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8029EAE0-DB89-4682-B15A-56826C7553D9}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F23" sqref="F23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E01A99-E3B4-43FA-A0FE-F49FACFABA0D}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA7306-FCAE-4D7C-B8B2-2676E446925C}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5403AB-7EAA-4F4E-93BD-AD3D9CD6768E}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE39821-E6DC-4AF9-8025-5B57817051F8}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>